--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_1827\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://henallux-my.sharepoint.com/personal/etu41351_henallux_be/Documents/Pierrard/MASTER_AUTO/bases_donnees/group2_BrusselsAIrport_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="405" documentId="13_ncr:1_{158BCEEA-4CFB-0944-8837-CA914FCAC876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{117977F5-DCF8-864A-B27E-90C0EF19ADED}"/>
+  <xr:revisionPtr revIDLastSave="421" documentId="13_ncr:1_{158BCEEA-4CFB-0944-8837-CA914FCAC876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{021DD37C-3ADE-6E4E-9B5F-A660ED701083}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="465" windowWidth="14400" windowHeight="16545" xr2:uid="{6CE197AE-D6B7-B84A-9564-15EEAD18FB7A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{6CE197AE-D6B7-B84A-9564-15EEAD18FB7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1008,28 +1008,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC306251-5B03-014F-9DFF-D912AF3F3F52}">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3:AA12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="4" width="12.125" customWidth="1"/>
+    <col min="3" max="4" width="12.1640625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" customWidth="1"/>
     <col min="15" max="15" width="26" customWidth="1"/>
-    <col min="16" max="16" width="16.875" customWidth="1"/>
-    <col min="19" max="19" width="15.125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="16.83203125" customWidth="1"/>
+    <col min="19" max="19" width="15.1640625" style="6" customWidth="1"/>
     <col min="20" max="20" width="15" customWidth="1"/>
-    <col min="21" max="21" width="17.375" customWidth="1"/>
-    <col min="22" max="22" width="13.625" customWidth="1"/>
+    <col min="21" max="21" width="17.33203125" customWidth="1"/>
+    <col min="22" max="22" width="13.6640625" customWidth="1"/>
     <col min="24" max="24" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>3</v>
       </c>
       <c r="U4">
-        <f>T4*15</f>
+        <f t="shared" ref="U4:U42" si="0">T4*15</f>
         <v>45</v>
       </c>
       <c r="V4">
@@ -1235,7 +1235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>2</v>
       </c>
       <c r="U5">
-        <f>T5*15</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="V5">
@@ -1299,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="U6">
-        <f>T6*15</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="V6">
@@ -1363,7 +1363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E7">
         <v>5</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <f>T7*15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V7">
@@ -1418,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H8">
         <v>6</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="U8">
-        <f>T8*15</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="V8">
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H9">
         <v>7</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>2</v>
       </c>
       <c r="U9">
-        <f>T9*15</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="V9">
@@ -1516,7 +1516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="M10" t="s">
         <v>43</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="U10">
-        <f>T10*15</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="V10">
@@ -1553,7 +1553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="M11" t="s">
         <v>14</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>2</v>
       </c>
       <c r="U11">
-        <f>T11*15</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="V11">
@@ -1590,7 +1590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="M12" t="s">
         <v>50</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="U12">
-        <f>T12*15</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="V12">
@@ -1627,7 +1627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="M13" t="s">
         <v>54</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <f>T13*15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V13">
@@ -1664,7 +1664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="M14" t="s">
         <v>58</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="U14">
-        <f>T14*15</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="V14">
@@ -1701,7 +1701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="M15" t="s">
         <v>62</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="U15">
-        <f>T15*15</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="V15">
@@ -1738,7 +1738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="M16" t="s">
         <v>66</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>3</v>
       </c>
       <c r="U16">
-        <f>T16*15</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="V16">
@@ -1775,7 +1775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M17" t="s">
         <v>70</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>4</v>
       </c>
       <c r="U17">
-        <f>T17*15</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="V17">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M18" t="s">
         <v>74</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="U18">
-        <f>T18*15</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="V18">
@@ -1849,7 +1849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M19" t="s">
         <v>78</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>2</v>
       </c>
       <c r="U19">
-        <f>T19*15</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="V19">
@@ -1886,7 +1886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M20" t="s">
         <v>83</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="U20">
-        <f>T20*15</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="V20">
@@ -1923,7 +1923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M21" t="s">
         <v>86</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <f>T21*15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V21">
@@ -1960,7 +1960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M22" t="s">
         <v>91</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="U22">
-        <f>T22*15</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="V22">
@@ -1997,7 +1997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M23" t="s">
         <v>95</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>2</v>
       </c>
       <c r="U23">
-        <f>T23*15</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="V23">
@@ -2034,7 +2034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M24" t="s">
         <v>99</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>3</v>
       </c>
       <c r="U24">
-        <f>T24*15</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="V24">
@@ -2071,7 +2071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M25" t="s">
         <v>106</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>4</v>
       </c>
       <c r="U25">
-        <f>T25*15</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="V25">
@@ -2108,7 +2108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M26" t="s">
         <v>110</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="U26">
-        <f>T26*15</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="V26">
@@ -2145,7 +2145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M27" t="s">
         <v>114</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>2</v>
       </c>
       <c r="U27">
-        <f>T27*15</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="V27">
@@ -2182,7 +2182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M28" t="s">
         <v>118</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="U28">
-        <f>T28*15</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="V28">
@@ -2219,7 +2219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M29" t="s">
         <v>120</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <f>T29*15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V29">
@@ -2256,7 +2256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M30" t="s">
         <v>119</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="U30">
-        <f>T30*15</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="V30">
@@ -2293,7 +2293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M31" t="s">
         <v>121</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>2</v>
       </c>
       <c r="U31">
-        <f>T31*15</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="V31">
@@ -2330,7 +2330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M32" t="s">
         <v>122</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>3</v>
       </c>
       <c r="U32">
-        <f>T32*15</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="V32">
@@ -2367,7 +2367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M33" t="s">
         <v>123</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>4</v>
       </c>
       <c r="U33">
-        <f>T33*15</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="V33">
@@ -2404,7 +2404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M34" t="s">
         <v>124</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>5</v>
       </c>
       <c r="U34">
-        <f>T34*15</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="V34">
@@ -2441,7 +2441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M35" t="s">
         <v>125</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>4</v>
       </c>
       <c r="U35">
-        <f>T35*15</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="V35">
@@ -2478,7 +2478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M36" t="s">
         <v>126</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>3</v>
       </c>
       <c r="U36">
-        <f>T36*15</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="V36">
@@ -2515,7 +2515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M37" t="s">
         <v>127</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>2</v>
       </c>
       <c r="U37">
-        <f>T37*15</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="V37">
@@ -2552,7 +2552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M38" t="s">
         <v>128</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="U38">
-        <f>T38*15</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="V38">
@@ -2589,7 +2589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M39" t="s">
         <v>129</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <f>T39*15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V39">
@@ -2626,7 +2626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M40" t="s">
         <v>130</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="U40">
-        <f>T40*15</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="V40">
@@ -2663,7 +2663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M41" t="s">
         <v>131</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>2</v>
       </c>
       <c r="U41">
-        <f>T41*15</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="V41">
@@ -2700,7 +2700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M42" t="s">
         <v>132</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>3</v>
       </c>
       <c r="U42">
-        <f>T42*15</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="V42">
